--- a/biology/Zoologie/Caracara_(genre)/Caracara_(genre).xlsx
+++ b/biology/Zoologie/Caracara_(genre)/Caracara_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caracara est un genre de rapaces de la famille des Falconidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international[1], il existe deux espèces du genre Caracara, dont une éteinte :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, il existe deux espèces du genre Caracara, dont une éteinte :
 Caracara plancus – Caracara huppé
 †Caracara lutosa – Caracara de Guadalupe
-Le genre dénombrait auparavant une espèce supplémentaire, le Caracara du Nord (Caracara cheriway) ; celle-ci est désormais considérée comme une sous-espèce du Caracara huppé à la suite d'une décision du SACC, fondée sur la faible diversité génétique entre les deux espèces et leur ressemblance très marquée[2],[3]. Cette décision est reflétée par le COI et par Clements[4].
+Le genre dénombrait auparavant une espèce supplémentaire, le Caracara du Nord (Caracara cheriway) ; celle-ci est désormais considérée comme une sous-espèce du Caracara huppé à la suite d'une décision du SACC, fondée sur la faible diversité génétique entre les deux espèces et leur ressemblance très marquée,. Cette décision est reflétée par le COI et par Clements.
 </t>
         </is>
       </c>
